--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.8258675197455</v>
+        <v>22.06580366666666</v>
       </c>
       <c r="H2">
-        <v>21.8258675197455</v>
+        <v>66.19741099999999</v>
       </c>
       <c r="I2">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="J2">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.212685537419092</v>
+        <v>0.2423163333333333</v>
       </c>
       <c r="N2">
-        <v>0.212685537419092</v>
+        <v>0.726949</v>
       </c>
       <c r="O2">
-        <v>0.07897318504675378</v>
+        <v>0.08545736829972225</v>
       </c>
       <c r="P2">
-        <v>0.07897318504675378</v>
+        <v>0.08545736829972224</v>
       </c>
       <c r="Q2">
-        <v>4.642046363074976</v>
+        <v>5.346904636559888</v>
       </c>
       <c r="R2">
-        <v>4.642046363074976</v>
+        <v>48.12214172903899</v>
       </c>
       <c r="S2">
-        <v>0.01144255632877131</v>
+        <v>0.01199576723566788</v>
       </c>
       <c r="T2">
-        <v>0.01144255632877131</v>
+        <v>0.01199576723566788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.8258675197455</v>
+        <v>22.06580366666666</v>
       </c>
       <c r="H3">
-        <v>21.8258675197455</v>
+        <v>66.19741099999999</v>
       </c>
       <c r="I3">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="J3">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.17577244321503</v>
+        <v>2.274826333333333</v>
       </c>
       <c r="N3">
-        <v>2.17577244321503</v>
+        <v>6.824479</v>
       </c>
       <c r="O3">
-        <v>0.8078954585382343</v>
+        <v>0.8022598770432592</v>
       </c>
       <c r="P3">
-        <v>0.8078954585382343</v>
+        <v>0.8022598770432591</v>
       </c>
       <c r="Q3">
-        <v>47.48812109872423</v>
+        <v>50.19587124709655</v>
       </c>
       <c r="R3">
-        <v>47.48812109872423</v>
+        <v>451.7628412238689</v>
       </c>
       <c r="S3">
-        <v>0.1170573187165922</v>
+        <v>0.1126143121301543</v>
       </c>
       <c r="T3">
-        <v>0.1170573187165922</v>
+        <v>0.1126143121301542</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.8258675197455</v>
+        <v>22.06580366666666</v>
       </c>
       <c r="H4">
-        <v>21.8258675197455</v>
+        <v>66.19741099999999</v>
       </c>
       <c r="I4">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="J4">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.304678142635792</v>
+        <v>0.3183803333333333</v>
       </c>
       <c r="N4">
-        <v>0.304678142635792</v>
+        <v>0.955141</v>
       </c>
       <c r="O4">
-        <v>0.1131313564150119</v>
+        <v>0.1122827546570186</v>
       </c>
       <c r="P4">
-        <v>0.1131313564150119</v>
+        <v>0.1122827546570186</v>
       </c>
       <c r="Q4">
-        <v>6.64986477733092</v>
+        <v>7.025317926661221</v>
       </c>
       <c r="R4">
-        <v>6.64986477733092</v>
+        <v>63.22786133995099</v>
       </c>
       <c r="S4">
-        <v>0.01639179067632512</v>
+        <v>0.01576128327192561</v>
       </c>
       <c r="T4">
-        <v>0.01639179067632512</v>
+        <v>0.01576128327192561</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>97.5857957894124</v>
+        <v>98.09611</v>
       </c>
       <c r="H5">
-        <v>97.5857957894124</v>
+        <v>294.28833</v>
       </c>
       <c r="I5">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="J5">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.212685537419092</v>
+        <v>0.2423163333333333</v>
       </c>
       <c r="N5">
-        <v>0.212685537419092</v>
+        <v>0.726949</v>
       </c>
       <c r="O5">
-        <v>0.07897318504675378</v>
+        <v>0.08545736829972225</v>
       </c>
       <c r="P5">
-        <v>0.07897318504675378</v>
+        <v>0.08545736829972224</v>
       </c>
       <c r="Q5">
-        <v>20.75508742194094</v>
+        <v>23.77028968946333</v>
       </c>
       <c r="R5">
-        <v>20.75508742194094</v>
+        <v>213.93260720517</v>
       </c>
       <c r="S5">
-        <v>0.05116089723343772</v>
+        <v>0.05332858571845683</v>
       </c>
       <c r="T5">
-        <v>0.05116089723343772</v>
+        <v>0.05332858571845682</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>97.5857957894124</v>
+        <v>98.09611</v>
       </c>
       <c r="H6">
-        <v>97.5857957894124</v>
+        <v>294.28833</v>
       </c>
       <c r="I6">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="J6">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.17577244321503</v>
+        <v>2.274826333333333</v>
       </c>
       <c r="N6">
-        <v>2.17577244321503</v>
+        <v>6.824479</v>
       </c>
       <c r="O6">
-        <v>0.8078954585382343</v>
+        <v>0.8022598770432592</v>
       </c>
       <c r="P6">
-        <v>0.8078954585382343</v>
+        <v>0.8022598770432591</v>
       </c>
       <c r="Q6">
-        <v>212.3244853278128</v>
+        <v>223.1516142255633</v>
       </c>
       <c r="R6">
-        <v>212.3244853278128</v>
+        <v>2008.36452803007</v>
       </c>
       <c r="S6">
-        <v>0.5233758332675306</v>
+        <v>0.5006400907564472</v>
       </c>
       <c r="T6">
-        <v>0.5233758332675306</v>
+        <v>0.5006400907564471</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>97.5857957894124</v>
+        <v>98.09611</v>
       </c>
       <c r="H7">
-        <v>97.5857957894124</v>
+        <v>294.28833</v>
       </c>
       <c r="I7">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="J7">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.304678142635792</v>
+        <v>0.3183803333333333</v>
       </c>
       <c r="N7">
-        <v>0.304678142635792</v>
+        <v>0.955141</v>
       </c>
       <c r="O7">
-        <v>0.1131313564150119</v>
+        <v>0.1122827546570186</v>
       </c>
       <c r="P7">
-        <v>0.1131313564150119</v>
+        <v>0.1122827546570186</v>
       </c>
       <c r="Q7">
-        <v>29.73225900875386</v>
+        <v>31.23187220050333</v>
       </c>
       <c r="R7">
-        <v>29.73225900875386</v>
+        <v>281.08684980453</v>
       </c>
       <c r="S7">
-        <v>0.07328945509797127</v>
+        <v>0.07006862749892025</v>
       </c>
       <c r="T7">
-        <v>0.07328945509797127</v>
+        <v>0.07006862749892025</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.6167546251892</v>
+        <v>29.56610533333334</v>
       </c>
       <c r="H8">
-        <v>27.6167546251892</v>
+        <v>88.69831600000001</v>
       </c>
       <c r="I8">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="J8">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.212685537419092</v>
+        <v>0.2423163333333333</v>
       </c>
       <c r="N8">
-        <v>0.212685537419092</v>
+        <v>0.726949</v>
       </c>
       <c r="O8">
-        <v>0.07897318504675378</v>
+        <v>0.08545736829972225</v>
       </c>
       <c r="P8">
-        <v>0.07897318504675378</v>
+        <v>0.08545736829972224</v>
       </c>
       <c r="Q8">
-        <v>5.873684299229559</v>
+        <v>7.164350235320445</v>
       </c>
       <c r="R8">
-        <v>5.873684299229559</v>
+        <v>64.479152117884</v>
       </c>
       <c r="S8">
-        <v>0.01447852050465794</v>
+        <v>0.01607320191014293</v>
       </c>
       <c r="T8">
-        <v>0.01447852050465794</v>
+        <v>0.01607320191014292</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.6167546251892</v>
+        <v>29.56610533333334</v>
       </c>
       <c r="H9">
-        <v>27.6167546251892</v>
+        <v>88.69831600000001</v>
       </c>
       <c r="I9">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="J9">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.17577244321503</v>
+        <v>2.274826333333333</v>
       </c>
       <c r="N9">
-        <v>2.17577244321503</v>
+        <v>6.824479</v>
       </c>
       <c r="O9">
-        <v>0.8078954585382343</v>
+        <v>0.8022598770432592</v>
       </c>
       <c r="P9">
-        <v>0.8078954585382343</v>
+        <v>0.8022598770432591</v>
       </c>
       <c r="Q9">
-        <v>60.08777368451788</v>
+        <v>67.25775498637378</v>
       </c>
       <c r="R9">
-        <v>60.08777368451788</v>
+        <v>605.3197948773641</v>
       </c>
       <c r="S9">
-        <v>0.1481152236058468</v>
+        <v>0.1508926058066388</v>
       </c>
       <c r="T9">
-        <v>0.1481152236058468</v>
+        <v>0.1508926058066388</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.6167546251892</v>
+        <v>29.56610533333334</v>
       </c>
       <c r="H10">
-        <v>27.6167546251892</v>
+        <v>88.69831600000001</v>
       </c>
       <c r="I10">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="J10">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.304678142635792</v>
+        <v>0.3183803333333333</v>
       </c>
       <c r="N10">
-        <v>0.304678142635792</v>
+        <v>0.955141</v>
       </c>
       <c r="O10">
-        <v>0.1131313564150119</v>
+        <v>0.1122827546570186</v>
       </c>
       <c r="P10">
-        <v>0.1131313564150119</v>
+        <v>0.1122827546570186</v>
       </c>
       <c r="Q10">
-        <v>8.414221504831064</v>
+        <v>9.413266471395112</v>
       </c>
       <c r="R10">
-        <v>8.414221504831064</v>
+        <v>84.71939824255601</v>
       </c>
       <c r="S10">
-        <v>0.02074089657907048</v>
+        <v>0.0211186398848555</v>
       </c>
       <c r="T10">
-        <v>0.02074089657907048</v>
+        <v>0.0211186398848555</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.60735128697682</v>
+        <v>7.467887999999999</v>
       </c>
       <c r="H11">
-        <v>3.60735128697682</v>
+        <v>22.403664</v>
       </c>
       <c r="I11">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679087</v>
       </c>
       <c r="J11">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679088</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.212685537419092</v>
+        <v>0.2423163333333333</v>
       </c>
       <c r="N11">
-        <v>0.212685537419092</v>
+        <v>0.726949</v>
       </c>
       <c r="O11">
-        <v>0.07897318504675378</v>
+        <v>0.08545736829972225</v>
       </c>
       <c r="P11">
-        <v>0.07897318504675378</v>
+        <v>0.08545736829972224</v>
       </c>
       <c r="Q11">
-        <v>0.7672314471301181</v>
+        <v>1.809591237904</v>
       </c>
       <c r="R11">
-        <v>0.7672314471301181</v>
+        <v>16.286321141136</v>
       </c>
       <c r="S11">
-        <v>0.001891210979886826</v>
+        <v>0.004059813435454628</v>
       </c>
       <c r="T11">
-        <v>0.001891210979886826</v>
+        <v>0.004059813435454628</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.60735128697682</v>
+        <v>7.467887999999999</v>
       </c>
       <c r="H12">
-        <v>3.60735128697682</v>
+        <v>22.403664</v>
       </c>
       <c r="I12">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679087</v>
       </c>
       <c r="J12">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679088</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.17577244321503</v>
+        <v>2.274826333333333</v>
       </c>
       <c r="N12">
-        <v>2.17577244321503</v>
+        <v>6.824479</v>
       </c>
       <c r="O12">
-        <v>0.8078954585382343</v>
+        <v>0.8022598770432592</v>
       </c>
       <c r="P12">
-        <v>0.8078954585382343</v>
+        <v>0.8022598770432591</v>
       </c>
       <c r="Q12">
-        <v>7.848775523200438</v>
+        <v>16.988148276784</v>
       </c>
       <c r="R12">
-        <v>7.848775523200438</v>
+        <v>152.893334491056</v>
       </c>
       <c r="S12">
-        <v>0.0193470829482648</v>
+        <v>0.038112868350019</v>
       </c>
       <c r="T12">
-        <v>0.0193470829482648</v>
+        <v>0.038112868350019</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.60735128697682</v>
+        <v>7.467887999999999</v>
       </c>
       <c r="H13">
-        <v>3.60735128697682</v>
+        <v>22.403664</v>
       </c>
       <c r="I13">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679087</v>
       </c>
       <c r="J13">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679088</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.304678142635792</v>
+        <v>0.3183803333333333</v>
       </c>
       <c r="N13">
-        <v>0.304678142635792</v>
+        <v>0.955141</v>
       </c>
       <c r="O13">
-        <v>0.1131313564150119</v>
+        <v>0.1122827546570186</v>
       </c>
       <c r="P13">
-        <v>0.1131313564150119</v>
+        <v>0.1122827546570186</v>
       </c>
       <c r="Q13">
-        <v>1.099081089950932</v>
+        <v>2.377628670736</v>
       </c>
       <c r="R13">
-        <v>1.099081089950932</v>
+        <v>21.398658036624</v>
       </c>
       <c r="S13">
-        <v>0.002709214061645031</v>
+        <v>0.005334204001317244</v>
       </c>
       <c r="T13">
-        <v>0.002709214061645031</v>
+        <v>0.005334204001317244</v>
       </c>
     </row>
   </sheetData>
